--- a/final_data_pipeline/output/311511longform_elec_options.xlsx
+++ b/final_data_pipeline/output/311511longform_elec_options.xlsx
@@ -767,7 +767,7 @@
         <v>30</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>19.36574074074073</v>
       </c>
       <c r="L6">
         <v>8000</v>
@@ -782,10 +782,10 @@
         <v>490004.0478588709</v>
       </c>
       <c r="R6">
-        <v>2.2071875</v>
+        <v>2.499849249524808</v>
       </c>
       <c r="S6">
-        <v>2.486785714285714</v>
+        <v>2.870901733221348</v>
       </c>
       <c r="T6">
         <v>61.25050598235886</v>
@@ -820,7 +820,7 @@
         <v>30</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L7">
         <v>8000</v>
@@ -835,10 +835,10 @@
         <v>448668.4427039697</v>
       </c>
       <c r="R7">
-        <v>2.2071875</v>
+        <v>2.004846509671994</v>
       </c>
       <c r="S7">
-        <v>2.486785714285714</v>
+        <v>2.229613377609108</v>
       </c>
       <c r="T7">
         <v>56.08355533799622</v>
@@ -873,7 +873,7 @@
         <v>31</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L8">
         <v>8000</v>
